--- a/AppSec/Функциональное тестирование.xlsx
+++ b/AppSec/Функциональное тестирование.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="556">
   <si>
     <t>Код требования</t>
   </si>
@@ -263,19 +263,26 @@
 превышения привилегий</t>
   </si>
   <si>
-    <t xml:space="preserve">Определить функции
+    <t>Определить функции
 Определить права
 Определить служебные роли в процессе
-Сформировать роли </t>
+Сформировать роли 
+Определить какие компоненты системы проворят верификацию</t>
+  </si>
+  <si>
+    <t>Провести тестирование на повышение привилегий
+Доступ к защищенным страницам /admin
+GET запрос с параметром /my-account?id=administrator
+Доступ со скрытыми параметрами ?admin=true isAdmin=True
+Тестирование на горизонтальное (доступ к фукциям? обьъектам других пользователей)
+IDOR /myaccount?id=123
+Провести тестирование JWT</t>
   </si>
   <si>
     <t>Средства управления доступом надежно работают
 при сбое, в том числе при возникновении исключения,
 либо информируют пользователя об ошибке АС без
  возможности выполнять критичные функции</t>
-  </si>
-  <si>
-    <t>Провести тестирование на повышение привилегий</t>
   </si>
   <si>
     <t>Конфиденциальные данные и API защищены от IDOR-атак,
@@ -299,6 +306,9 @@
     <t>Требования к валидации входных параметров</t>
   </si>
   <si>
+    <t>API</t>
+  </si>
+  <si>
     <t>Все входные данные (поля HTML-формы, запросы REST,
 параметры URL, заголовки HTTP, файлы cookie, пакетные
 файлы, RSS-каналы и т.д.) проверены с помощью
@@ -319,9 +329,6 @@
 </t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Перенаправление и пересылка URL-адресов разрешается
 только на доверенные адреса, которые отображаются в
 списке разрешенных, или показывается предупреждение
@@ -349,7 +356,15 @@
 быть очищен или изолирован перед выполнением (Command Injection)</t>
   </si>
   <si>
-    <t>CI</t>
+    <t>Command injection</t>
+  </si>
+  <si>
+    <t>Найти параметры в запросах содержащих 
+"body": "productId=3&amp;storeId=2
+Заменить или добавить через | || &amp; +
+команды whoami, id, ls
+"body": "productId=1&amp;storeId=1|whoami"
+||whoami&gt;/var/www/images/output.txt||</t>
   </si>
   <si>
     <t>Приложение защищает от атак с внедрением шаблонов (SSTI),
@@ -370,6 +385,12 @@
     <t>SVG</t>
   </si>
   <si>
+    <t>Приложение защищает от XSS reflected</t>
+  </si>
+  <si>
+    <t>Тестирование для сабдоменов при сочетании с неправильными настройками CORS:</t>
+  </si>
+  <si>
     <t>Приложение очищает, отключает или изолирует
 содержимое, предоставляемое пользователем на языке
 скриптов или шаблонов выражений, такое как Markdown,
@@ -388,6 +409,22 @@
     <t>SQL</t>
   </si>
   <si>
+    <t xml:space="preserve">Определить точки ввода запроса к БД
+https://insecure-website.com/products?category=Gifts
+</t>
+  </si>
+  <si>
+    <t>Для URL:
+filter?category=Gifts'--
+filter?category='+OR+1=1--
+Для LOGIN FORM:
+' or 1=1 -- -
+Для body:
+Для HTTP заголовков:
+cookie c заголовками "traceID" "userID" возможно что их используют для идентификации сессии
+xyz' AND '1'='1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Приложение защищает от уязвимостей, связанных
 с внедрением LDAP, или реализованы специальные
 средства безопасности для предотвращения внедрения
@@ -422,13 +459,31 @@
     <t>FILE</t>
   </si>
   <si>
+    <t>API должны быть задокументированы</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Найти незадокументированные API в коде JS HTML, вкладке Network
+обратить внимание на числа и версионность
+/api/v3
+/products/2/
+/swagger/index.html
+/openapi.json</t>
+  </si>
+  <si>
     <t xml:space="preserve">Запросы, содержащие неожиданные или отсутствующие
 типы содержимого, отклоняются с соответствующими
 заголовками (статус ответа HTTP 406 Неприемлемый или
 415 Неподдерживаемый тип носителя) </t>
   </si>
   <si>
-    <t>REST</t>
+    <t>Консоль разработчика,
+Найти API
+Copy as fetch &gt; заменить Content-Type: application/json
+добавить body: {} - возможно в тело будет добавлена информация
+Провести фаззинг параметров</t>
   </si>
   <si>
     <t>Включенные методы RESTful HTTP являются
@@ -436,6 +491,11 @@
 например, запрещают обычным пользователям
 использовать DELETE или PUT on protected API или
 ресурсы</t>
+  </si>
+  <si>
+    <t>Консоль разработчика,
+Найти API
+Copy as fetch &gt; заменить GET &gt; OPTIONS, PUT, DELETE, PATCH</t>
   </si>
   <si>
     <t>Проверка схемы JSON выполнена перед принятием
@@ -505,6 +565,9 @@
   </si>
   <si>
     <t>Приложение защищает от атак Path traversal</t>
+  </si>
+  <si>
+    <t>Path traversal</t>
   </si>
   <si>
     <t xml:space="preserve">Открыть исходный код HTML 
@@ -577,7 +640,7 @@
 выполняться как содержимое HTML/JavaScript </t>
   </si>
   <si>
-    <t>Требования к управлению секретами</t>
+    <t>Требования к управлению секретами / конфиденциальной информации</t>
   </si>
   <si>
     <t xml:space="preserve">Пароли, интеграция с базами данных и сторонними
@@ -626,6 +689,18 @@
 повреждение данных</t>
   </si>
   <si>
+    <t>Приложение не раскрывает чувствительную информацию через ошибки, в комментариях кода, режим отладки</t>
+  </si>
+  <si>
+    <t>Information disclosure</t>
+  </si>
+  <si>
+    <t>Найти и вызвать ошибку функции
+Найти страницу /robot.txt /sitemap.xml /admin /.git
+Использовать методы HTTP: TRACE OPTIONS CONNECT
+Найти страницы отладки cgi-bin/phpinfo.php</t>
+  </si>
+  <si>
     <t>Требования к криптограции</t>
   </si>
   <si>
@@ -640,7 +715,14 @@
 версия протокола TLS </t>
   </si>
   <si>
+    <t>Требования к обработке ошибок</t>
+  </si>
+  <si>
     <t>Требования к ЖАМ</t>
+  </si>
+  <si>
+    <t>Ошибки выводимые в консоль, пользователю не содержат излишней информации. 
+не разглашают внутреннюю логику работы</t>
   </si>
   <si>
     <t>Приложение не регистрирует учётные данные или
@@ -785,6 +867,9 @@
 HTML, DOM, JSON и JavaScript</t>
   </si>
   <si>
+    <t>WEB, XSS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Все ответы содержат заголовок X-Content-Type-Options:
 nosniff </t>
   </si>
@@ -814,6 +899,83 @@
 происхождение</t>
   </si>
   <si>
+    <t>WEB, CORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSS в сочетании с неправильными настройками CORS </t>
+  </si>
+  <si>
+    <t>XSS, CORS</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>1. Найти XSS на сабдомене "vulnerable.target.com"
+2. На сабдомене "vulnerable.target.com" &gt; Access-Control-Allow-Origin *.target.com + Access-Control-Allow-Credentials: true.
+3. Использовать XSS: 
+url= '</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.target.com/profile</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>'; 
+fetch(url ,{credentials:`include`}) // To send the cookies in the request
+  .then(response=&gt;{return(response.text());}) 
+  .then(data=&gt;alert(JSON.stringify(JSON.parse(data)[`user`])));</t>
+    </r>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/projectdiscovery/nuclei-templates/main/http/vulnerabilities/generic/cors-misconfig.yaml</t>
+  </si>
+  <si>
+    <t>Приложение не должно использовать для критичных операций
+методы GET, PUT для защиты от CSRF \ Clickjacking
+Использовать CSRF-token
+Использовать Content-Security-Policy: frame-ancestors 'self';
+Использовать X-Frame-Options: deny | sameorigin | allow-from https[:]//normal-website.com</t>
+  </si>
+  <si>
+    <t>clickjacking, WEB</t>
+  </si>
+  <si>
+    <t>Используй Burp's Clickbandit tool
+&lt;iframe src="YOUR-LAB-ID.web-security-academy.net/feedback?name=&lt;img src=1 onerror=print()&gt;&amp;email=hacker@attacker-website.com&amp;subject=test&amp;message=test#feedbackResult"&gt;&lt;/iframe&gt;
+&lt;iframe sandbox="allow-forms" src="DOMAIN?email=attacker@email.com"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;
+    &lt;style&gt;
+        iframe {
+             position:relative;
+             width:700px;
+             height:600px;
+             opacity:0.1;
+             z-index:2;
+            }
+        div {
+             position:absolute;
+             z-index:1;
+             top:450px;
+             left:50px;
+            }
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div&gt;
+        CLICK HERE
+    &lt;/div&gt;
+    &lt;iframe 
+sandbox="allow-forms" src="DOMAIN?email=attacker@email.com"&gt;
+    &lt;/iframe&gt;
+&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
     <t>Предоставленный исходный заголовок не используется
 для принятия решений о проверке подлинности или
 контроле доступа, поскольку исходный заголовок может
@@ -845,9 +1007,6 @@
 попытки выполнить действия не по порядку или
 действия, которые обычный пользователь никогда бы не
 предпринял</t>
-  </si>
-  <si>
-    <t>Требования к интеграциям</t>
   </si>
   <si>
     <t>Name</t>
@@ -2409,7 +2568,11 @@
         send: "here",
     }),
 })
-    .then(response =&gt; response.json())
+    .then(response =&gt; response.text())
+    .then(data =&gt; console.log(data));</t>
+  </si>
+  <si>
+    <t>.then(responce =&gt; responce.text())
     .then(data =&gt; console.log(data));</t>
   </si>
   <si>
@@ -2521,7 +2684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2529,6 +2692,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2807,9 +2973,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="46.0"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="33.75"/>
-    <col customWidth="1" min="5" max="5" width="28.38"/>
+    <col customWidth="1" min="3" max="3" width="12.13"/>
+    <col customWidth="1" min="4" max="4" width="28.5"/>
+    <col customWidth="1" min="5" max="5" width="33.75"/>
+    <col customWidth="1" min="6" max="6" width="28.38"/>
+    <col customWidth="1" min="7" max="7" width="24.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2819,16 +2987,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2836,10 +3005,11 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2847,10 +3017,11 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2858,10 +3029,11 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2869,10 +3041,11 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2880,7 +3053,7 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2888,10 +3061,11 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2899,10 +3073,11 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2915,10 +3090,11 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2946,7 +3122,8 @@
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2967,7 +3144,7 @@
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3004,7 +3181,8 @@
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3012,15 +3190,16 @@
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3043,30 +3222,44 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -3082,534 +3275,648 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="78.0" customHeight="1">
       <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="78.0" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" ht="135.75" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>105</v>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B65" s="1"/>
     </row>
     <row r="66">
-      <c r="B66" s="1" t="s">
-        <v>107</v>
+      <c r="A66" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>110</v>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72">
-      <c r="B72" s="1" t="s">
-        <v>112</v>
+      <c r="A72" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>117</v>
+      <c r="B77" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="1" t="s">
-        <v>119</v>
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>120</v>
+      <c r="B81" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="1" t="s">
-        <v>123</v>
+      <c r="A84" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86">
-      <c r="B86" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A86" s="1"/>
     </row>
     <row r="87">
-      <c r="B87" s="1" t="s">
-        <v>126</v>
+      <c r="A87" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>127</v>
+      <c r="B89" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>135</v>
+      <c r="B97" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>73</v>
+      <c r="A104" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>154</v>
+      <c r="B116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" ht="68.25" customHeight="1">
+      <c r="B122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E121"/>
+    <hyperlink r:id="rId3" ref="F121"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3631,2221 +3938,2221 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>163</v>
+      <c r="A1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11" t="s">
-        <v>166</v>
+      <c r="A3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>168</v>
+      <c r="A4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
-        <v>170</v>
+      <c r="A5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>172</v>
+      <c r="A6" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>174</v>
+      <c r="A7" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>176</v>
+      <c r="A8" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>178</v>
+      <c r="A9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>180</v>
+      <c r="A10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>182</v>
+      <c r="A11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" ht="93.75" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="B93" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="10"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="B113" s="10"/>
+      <c r="C113" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="B120" s="10"/>
+      <c r="C120" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="13" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="B122" s="10"/>
+      <c r="C122" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="B123" s="10"/>
+      <c r="C123" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="B124" s="10"/>
+      <c r="C124" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="B125" s="10"/>
+      <c r="C125" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="B126" s="10"/>
+      <c r="C126" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="B127" s="10"/>
+      <c r="C127" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="B129" s="10"/>
+      <c r="C129" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="B130" s="10"/>
+      <c r="C130" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="B131" s="10"/>
+      <c r="C131" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="B132" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="C132" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="B133" s="10"/>
+      <c r="C133" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="134">
+      <c r="A134" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="10" t="s">
+      <c r="B134" s="10"/>
+      <c r="C134" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="13" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="B135" s="10"/>
+      <c r="C135" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B41" s="13" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="B136" s="10"/>
+      <c r="C136" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="B138" s="10"/>
+      <c r="C138" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="10" t="s">
+    </row>
+    <row r="139">
+      <c r="A139" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="B139" s="10"/>
+      <c r="C139" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="10" t="s">
+    </row>
+    <row r="140">
+      <c r="A140" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B140" s="10"/>
+      <c r="C140" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="10" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="B141" s="10"/>
+      <c r="C141" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="14" t="s">
+    </row>
+    <row r="142">
+      <c r="A142" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="B142" s="10"/>
+      <c r="C142" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="s">
+    </row>
+    <row r="143">
+      <c r="A143" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B143" s="10"/>
+      <c r="C143" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+    </row>
+    <row r="144">
+      <c r="A144" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="B144" s="10"/>
+      <c r="C144" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" ht="93.75" customHeight="1">
-      <c r="A62" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="9"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="10" t="s">
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B163" s="10"/>
+      <c r="C163" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B196" s="10"/>
+      <c r="C196" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9" t="s">
+      <c r="B199" s="17"/>
+      <c r="C199" s="10"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
+      <c r="B200" s="10"/>
+      <c r="C200" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="11" t="s">
+    </row>
+    <row r="202">
+      <c r="A202" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="10" t="s">
+      <c r="B202" s="10"/>
+      <c r="C202" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9" t="s">
+    </row>
+    <row r="203">
+      <c r="A203" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="s">
+      <c r="B203" s="10"/>
+      <c r="C203" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9" t="s">
+    </row>
+    <row r="204">
+      <c r="A204" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="10" t="s">
+      <c r="B204" s="10"/>
+      <c r="C204" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9" t="s">
+    </row>
+    <row r="205">
+      <c r="A205" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="s">
+      <c r="B205" s="10"/>
+      <c r="C205" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9" t="s">
+    </row>
+    <row r="206">
+      <c r="A206" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="10" t="s">
+      <c r="B206" s="10"/>
+      <c r="C206" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9" t="s">
+    </row>
+    <row r="207">
+      <c r="A207" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="10" t="s">
+      <c r="B207" s="10"/>
+      <c r="C207" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9" t="s">
+    </row>
+    <row r="208">
+      <c r="A208" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
+      <c r="B208" s="10"/>
+      <c r="C208" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9" t="s">
+    </row>
+    <row r="209">
+      <c r="A209" s="11" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="10" t="s">
+      <c r="B209" s="10"/>
+      <c r="C209" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B199" s="16"/>
-      <c r="C199" s="9"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="210">
-      <c r="A210" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B210" s="16"/>
-      <c r="C210" s="9"/>
+      <c r="A210" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B210" s="17"/>
+      <c r="C210" s="10"/>
     </row>
     <row r="211">
-      <c r="A211" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9" t="s">
-        <v>441</v>
+      <c r="A211" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9" t="s">
-        <v>443</v>
+      <c r="A212" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9" t="s">
-        <v>445</v>
+      <c r="A213" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9" t="s">
-        <v>447</v>
+      <c r="A214" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B215" s="16"/>
-      <c r="C215" s="9"/>
+      <c r="A215" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B215" s="17"/>
+      <c r="C215" s="10"/>
     </row>
     <row r="216">
-      <c r="A216" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>451</v>
+      <c r="A216" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>454</v>
+      <c r="A217" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>457</v>
+      <c r="A218" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9" t="s">
-        <v>459</v>
+      <c r="A219" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9" t="s">
-        <v>461</v>
+      <c r="A220" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9" t="s">
-        <v>463</v>
+      <c r="A221" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9" t="s">
-        <v>465</v>
+      <c r="A222" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B223" s="16"/>
-      <c r="C223" s="9"/>
+      <c r="A223" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="10"/>
     </row>
     <row r="224">
-      <c r="A224" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9" t="s">
-        <v>468</v>
+      <c r="A224" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9" t="s">
-        <v>470</v>
+      <c r="A225" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9" t="s">
-        <v>472</v>
+      <c r="A226" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9" t="s">
-        <v>474</v>
+      <c r="A227" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9" t="s">
-        <v>476</v>
+      <c r="A228" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9" t="s">
-        <v>478</v>
+      <c r="A229" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B230" s="16"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B230" s="17"/>
+      <c r="C230" s="10"/>
     </row>
     <row r="231">
-      <c r="A231" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B231" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>482</v>
+      <c r="A231" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9" t="s">
-        <v>484</v>
+      <c r="A232" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9" t="s">
-        <v>486</v>
+      <c r="A233" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9" t="s">
-        <v>488</v>
+      <c r="A234" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9" t="s">
-        <v>490</v>
+      <c r="A235" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9" t="s">
-        <v>492</v>
+      <c r="A236" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9" t="s">
-        <v>494</v>
+      <c r="A237" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="9"/>
+      <c r="A238" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B238" s="17"/>
+      <c r="C238" s="10"/>
     </row>
     <row r="239">
-      <c r="A239" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9" t="s">
-        <v>497</v>
+      <c r="A239" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9" t="s">
-        <v>499</v>
+      <c r="A240" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9" t="s">
-        <v>501</v>
+      <c r="A241" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9" t="s">
-        <v>503</v>
+      <c r="A242" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9" t="s">
-        <v>505</v>
+      <c r="A243" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9" t="s">
-        <v>507</v>
+      <c r="A244" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9" t="s">
-        <v>509</v>
+      <c r="A245" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
+      <c r="A246" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
     </row>
     <row r="247">
-      <c r="A247" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9" t="s">
-        <v>512</v>
+      <c r="A247" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
+      <c r="A248" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
     </row>
     <row r="249">
-      <c r="A249" s="18" t="s">
-        <v>514</v>
+      <c r="A249" s="19" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="C251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6097,17 +6404,20 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>552</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
